--- a/sub_pro_28_small_pop_area/datasets/africa_country_population_size.xlsx
+++ b/sub_pro_28_small_pop_area/datasets/africa_country_population_size.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_Files\afro_dataviz\sub_pro_28_small_pop_area\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F40FF5F5-CFB6-4E0A-B16E-FC3EDEDC033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85189117-39A5-499C-8620-54CAB6A485BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4E1A06F9-8403-44E2-983C-BE19FE67634A}"/>
   </bookViews>
@@ -376,13 +376,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,11 +410,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,1298 +733,1301 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.154</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>227882945</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>2.12E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>216783400</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>128691692</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>2.64E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>107334000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>114535772</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>102060688</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>105789731</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>95370000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>66617606</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>61741120</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>63212384</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>1.34E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>59604992</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>55339003</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.02</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>51526000</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>50042791</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>1.34E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>41984500</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>48656601</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>41583600</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>46164219</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>44700000</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>37712505</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>1.03E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>37438314</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>36749906</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>35121734</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>33787914</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>30832019</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>33635160</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>0.03</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>33244414</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>31195932</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>27190927</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>31165654</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>29389150</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>28372687</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>24348251</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>26159867</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>23196000</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>23769127</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>14528662</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>23025776</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>20505155</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>21104482</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>19809511</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>20723965</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>19610769</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>19319064</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>15775400</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>18358615</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>12316895</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>18077573</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>18275743</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>16340822</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>15178979</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>0.01</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>14405465</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>13261638</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>0.01</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>14111034</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>12606998</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>0.01</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>13954471</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>13246394</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>13689450</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>13097400</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>12200431</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>11803588</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>11483374</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>4.19E-2</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>13249924</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>9304337</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>8095498</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>8460512</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>7541641</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>7305659</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>6931061</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>6182885</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>3697490</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>5493031</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>2.23E-2</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>4844381</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>5152421</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>6091097</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>5022441</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>4352037</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>3470390</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>3815900</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>2E-3</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>2963095</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>2641857</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>2E-3</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>2697845</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>2417471</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>2E-3</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>2484789</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>2349099</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>2E-3</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>2480244</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>2346179</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>2E-3</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>2311472</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>1.11E-2</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>2103600</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>2153339</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>1781308</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>1847549</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>1558160</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>1273588</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>-2E-3</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>1261196</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>1230506</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>1223362</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>1152944</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>1001454</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>850387</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>758316</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>522331</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>483628</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>230871</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>210200</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>1E-4</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>127951</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>100447</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>1480770525</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>1332291870</v>
       </c>
+      <c r="G56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
